--- a/backend/static/excel_files/fileforstores.xlsx
+++ b/backend/static/excel_files/fileforstores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kusha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kusha\OneDrive\Desktop\inventory\nventory\backend\static\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C3E186-18C8-4CE4-BFCC-294834CA5C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012044C6-13BC-48CE-8D23-30B753D302A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>(214) 827-4500</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -418,8 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -760,87 +762,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="23.8984375" customWidth="1"/>
-    <col min="7" max="7" width="31.3984375" customWidth="1"/>
+    <col min="7" max="7" width="23.8984375" customWidth="1"/>
+    <col min="8" max="8" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>32.720607757568359</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-97.080619812011719</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" t="s">
         <v>19</v>
       </c>
@@ -853,35 +855,35 @@
       <c r="M2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>32.720596313476563</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-97.079971313476563</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" t="s">
         <v>19</v>
       </c>
@@ -894,35 +896,35 @@
       <c r="M3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>32.721466064453125</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>-97.097053527832031</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
@@ -935,35 +937,35 @@
       <c r="M4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>32.735107421875</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-97.071914672851563</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
@@ -976,35 +978,35 @@
       <c r="M5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>32.711196899414063</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-97.07464599609375</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>40</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
       <c r="J6" t="s">
         <v>19</v>
       </c>
@@ -1017,35 +1019,35 @@
       <c r="M6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32.712974548339844</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>-97.068382263183594</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
@@ -1058,35 +1060,35 @@
       <c r="M7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>51</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>32.706474304199219</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-97.071258544921875</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
-        <v>19</v>
-      </c>
       <c r="J8" t="s">
         <v>19</v>
       </c>
@@ -1099,35 +1101,35 @@
       <c r="M8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="N8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>56</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>32.708358764648438</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-97.090950012207031</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>57</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
@@ -1140,35 +1142,35 @@
       <c r="M9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>62</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>32.721118927001953</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-97.064376831054688</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>63</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
@@ -1181,35 +1183,35 @@
       <c r="M10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="N10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>68</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>32.721141815185547</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-97.079925537109375</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>69</v>
       </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
@@ -1222,421 +1224,424 @@
       <c r="M11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12">
         <v>32.855903625488281</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12">
         <v>-96.747833251953125</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13">
         <v>32.857494354248047</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13">
         <v>-96.769660949707031</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14">
         <v>32.857887268066406</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14">
         <v>-96.768890380859375</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15">
         <v>32.823799133300781</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15">
         <v>-96.770423889160156</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16">
         <v>32.8424072265625</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16">
         <v>-96.77044677734375</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17">
         <v>32.796550750732422</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17">
         <v>-96.779502868652344</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" t="s">
         <v>100</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18">
         <v>32.865352630615234</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18">
         <v>-96.742660522460938</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19">
         <v>32.860477447509766</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19">
         <v>-96.767578125</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20">
         <v>32.848091125488281</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20">
         <v>-96.787155151367188</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21">
         <v>32.794937133789063</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G21">
         <v>-96.764472961425781</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" t="s">
         <v>120</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="1" t="s">
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M11" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:N11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>